--- a/biology/Médecine/Quentin_Debray/Quentin_Debray.xlsx
+++ b/biology/Médecine/Quentin_Debray/Quentin_Debray.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Quentin Debray, né le 1er avril 1944 à Paris, est un écrivain et psychiatre français.
 </t>
@@ -511,14 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils de Pierre Debray-Ritzen et cousin de Régis Debray, Quentin Debray est professeur de psychiatrie à la faculté de médecine Paris Descartes[1] et chef de service à l'hôpital Corentin-Celton (AP-HP)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de Pierre Debray-Ritzen et cousin de Régis Debray, Quentin Debray est professeur de psychiatrie à la faculté de médecine Paris Descartes et chef de service à l'hôpital Corentin-Celton (AP-HP).
 Parallèlement, il mène une carrière littéraire avec la publication de plusieurs romans dans une veine historique et psychologique.
-Autres activités
-Membre du conseil scientifique de la fondation Jérôme-Lejeune, il anime, toutes les quatre semaines à partir de mai 2010, une émission intitulée Psychologie et littérature sur Radio Courtoisie.
-Travaux
-Quentin Debray travaille notamment sur la dépression et sur les troubles de la personnalité. Il œuvre pour le développement des thérapies cognitivo-comportementales, publiant des ouvrages sur ces questions.
 </t>
         </is>
       </c>
@@ -544,22 +554,135 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Autres activités</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Membre du conseil scientifique de la fondation Jérôme-Lejeune, il anime, toutes les quatre semaines à partir de mai 2010, une émission intitulée Psychologie et littérature sur Radio Courtoisie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Quentin_Debray</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Quentin_Debray</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Travaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quentin Debray travaille notamment sur la dépression et sur les troubles de la personnalité. Il œuvre pour le développement des thérapies cognitivo-comportementales, publiant des ouvrages sur ces questions.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Quentin_Debray</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Quentin_Debray</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ouvrages de psychiatrie
-Le Psychopathe, Paris, PUF, 1984
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ouvrages de psychiatrie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Psychopathe, Paris, PUF, 1984
 L'Idéalisme passionné, Paris, PUF, 1989
 Vivre avec une dépression, Paris, Le Rocher, 1992
 Les Personnalités pathologiques : approche cognitive et thérapeutique, Paris, Masson, 1997 (réimp. 2011)
 Psychopathologie de l'adulte, Paris, Masson, 2001
 Amour, sexualité et troubles de la personnalité, Paris, Privat, 2007
 La Rencontre amoureuse, Le Cavalier Bleu, 2009  (ISBN 978-2846702669)
-L'Addiction sexuelle : idées reçues sur une souffrance méconnue, Le Cavalier Bleu, 2013  (ISBN 978-2846704939)
-Romans et essais
-La Maison de l'empereur, Paris, Albin Michel, 1998
+L'Addiction sexuelle : idées reçues sur une souffrance méconnue, Le Cavalier Bleu, 2013  (ISBN 978-2846704939)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Quentin_Debray</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Quentin_Debray</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans et essais</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La Maison de l'empereur, Paris, Albin Michel, 1998
 L'Impatiente de Freud, Paris, Albin Michel, 2002
 Le Livre de la fatigue, Issy-les-Moulineaux, Masson, 2003  (ISBN 2294011449)
 La Véranda au coucher du soleil, Paris, Le Rocher, 2005
